--- a/Bodega Dekorarte/Proyectos/Proyecto-Dynamo-Catering/Salida de Bodega - Catering.xlsx
+++ b/Bodega Dekorarte/Proyectos/Proyecto-Dynamo-Catering/Salida de Bodega - Catering.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="48">
   <si>
     <t>NIT. 900,645,501-1</t>
   </si>
@@ -288,9 +288,6 @@
     <t>Bueno</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>Caja de plastico</t>
   </si>
   <si>
@@ -360,6 +357,42 @@
       <t>El mismo de arriba</t>
     </r>
   </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Extensión</t>
+  </si>
+  <si>
+    <t>Regleta</t>
+  </si>
+  <si>
+    <t>Cantinas</t>
+  </si>
+  <si>
+    <t>Manteles</t>
+  </si>
+  <si>
+    <t>Cantinas sin tapa</t>
+  </si>
+  <si>
+    <t>Olleta grande</t>
+  </si>
+  <si>
+    <t>Cilindros de gas</t>
+  </si>
+  <si>
+    <t>Papel aluminio</t>
+  </si>
+  <si>
+    <t>Cocineta</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
 </sst>
 </file>
 
@@ -368,7 +401,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -496,6 +529,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -745,7 +785,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -822,6 +862,21 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -883,15 +938,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2009,50 +2055,6 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>34394</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>47567</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1431696</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>1513682</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="Imagen 24"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="520169" y="48606017"/>
-          <a:ext cx="1397302" cy="1466115"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
       <xdr:colOff>27638</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>52368</xdr:rowOff>
@@ -2071,7 +2073,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2094,12 +2096,667 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>34394</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>47567</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1397302" cy="1466115"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Imagen 26"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="520169" y="52435067"/>
+          <a:ext cx="1397302" cy="1466115"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>154803</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>63368</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1310120</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>1498734</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="500554" y="50323942"/>
+          <a:ext cx="1435366" cy="1155317"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>42544</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>28205</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1414461</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>2676896</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Imagen 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="528319" y="51710855"/>
+          <a:ext cx="1371917" cy="2648691"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>144212</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>39830</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1341689</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>2447731</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Imagen 24"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="24775" y="55023267"/>
+          <a:ext cx="2407901" cy="1197477"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>65067</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>48683</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1420835</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>2237684</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Imagen 27"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="134225" y="57320025"/>
+          <a:ext cx="2189001" cy="1355768"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>55016</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>47954</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1411834</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>1857046</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Imagen 28"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="314654" y="59405291"/>
+          <a:ext cx="1809092" cy="1356818"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>34458</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>33966</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1432392</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>1594616</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Imagen 29"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="520233" y="61070166"/>
+          <a:ext cx="1397934" cy="1560650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>34458</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>45146</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1432392</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>1506257</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Imagen 30"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="520233" y="62710121"/>
+          <a:ext cx="1397934" cy="1461111"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>34458</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>52278</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1432392</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>1658558</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Imagen 31"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="520233" y="64279353"/>
+          <a:ext cx="1397934" cy="1606280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>49692</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>261307</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1436209</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>637266</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Imagen 33"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="535467" y="66183832"/>
+          <a:ext cx="1386517" cy="375959"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>44004</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>48847</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1441897</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>2456748</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="Imagen 34"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="24775" y="67400301"/>
+          <a:ext cx="2407901" cy="1397893"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>46853</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>33700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1427835</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>2023701</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Imagen 35"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="532628" y="69375700"/>
+          <a:ext cx="1380982" cy="1990001"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>280096</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>38429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1188356</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>1847521</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="Imagen 36"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="765871" y="71428304"/>
+          <a:ext cx="908260" cy="1809092"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>34458</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>48009</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1432392</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>1639884</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="Imagen 37"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="520233" y="73323834"/>
+          <a:ext cx="1397934" cy="1591875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>237689</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>26973</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1210112</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>2434874</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="Imagen 38"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="5725" y="75715987"/>
+          <a:ext cx="2407901" cy="972423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabla5" displayName="Tabla5" ref="B9:H30" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7" headerRowCellStyle="Moneda 2">
-  <autoFilter ref="B9:H30"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabla5" displayName="Tabla5" ref="B9:H55" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7" headerRowCellStyle="Moneda 2">
+  <autoFilter ref="B9:H55"/>
   <tableColumns count="7">
     <tableColumn id="1" name="No." dataDxfId="6"/>
     <tableColumn id="2" name="IMAGEN" dataDxfId="5"/>
@@ -2376,10 +3033,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H61"/>
+  <dimension ref="B1:H86"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="61.5" x14ac:dyDescent="0.25"/>
@@ -2397,79 +3054,79 @@
   <sheetData>
     <row r="1" spans="2:8" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="93" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="26"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="28"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="33"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="31"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="36"/>
     </row>
     <row r="4" spans="2:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="40"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="45"/>
     </row>
     <row r="5" spans="2:8" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="37"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="42"/>
     </row>
     <row r="6" spans="2:8" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="46"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="51"/>
     </row>
     <row r="7" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="43"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="48"/>
     </row>
     <row r="8" spans="2:8" s="20" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="34"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="39"/>
     </row>
     <row r="9" spans="2:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="18" t="s">
@@ -2611,7 +3268,7 @@
         <v>21</v>
       </c>
       <c r="F15" s="24" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="G15" s="9" t="s">
         <v>15</v>
@@ -2626,7 +3283,7 @@
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>14</v>
@@ -2647,12 +3304,12 @@
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="47">
+      <c r="F17" s="26">
         <v>54</v>
       </c>
       <c r="G17" s="8" t="s">
@@ -2668,19 +3325,19 @@
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="47">
+      <c r="F18" s="26">
         <v>1</v>
       </c>
       <c r="G18" s="8" t="s">
         <v>15</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="130.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2689,12 +3346,12 @@
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="47">
+      <c r="F19" s="26">
         <v>1</v>
       </c>
       <c r="G19" s="8" t="s">
@@ -2710,12 +3367,12 @@
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F20" s="47">
+      <c r="F20" s="26">
         <v>3</v>
       </c>
       <c r="G20" s="8" t="s">
@@ -2731,13 +3388,13 @@
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="47">
-        <v>6</v>
+      <c r="F21" s="26">
+        <v>8</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>15</v>
@@ -2752,12 +3409,12 @@
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F22" s="47">
+      <c r="F22" s="26">
         <v>1</v>
       </c>
       <c r="G22" s="8" t="s">
@@ -2773,12 +3430,12 @@
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F23" s="47">
+      <c r="F23" s="26">
         <v>1</v>
       </c>
       <c r="G23" s="8" t="s">
@@ -2794,12 +3451,12 @@
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="47">
+      <c r="F24" s="26">
         <v>1</v>
       </c>
       <c r="G24" s="8" t="s">
@@ -2815,12 +3472,12 @@
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E25" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F25" s="47">
+      <c r="F25" s="26">
         <v>5</v>
       </c>
       <c r="G25" s="8" t="s">
@@ -2836,19 +3493,19 @@
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F26" s="47">
+      <c r="F26" s="26">
         <v>1</v>
       </c>
       <c r="G26" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="48" t="s">
-        <v>35</v>
+      <c r="H26" s="27" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="2:8" ht="215.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2857,19 +3514,19 @@
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E27" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F27" s="47">
+      <c r="F27" s="26">
         <v>1</v>
       </c>
       <c r="G27" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="48" t="s">
-        <v>36</v>
+      <c r="H27" s="27" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="2:8" ht="132.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2883,7 +3540,7 @@
       <c r="E28" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F28" s="47">
+      <c r="F28" s="26">
         <v>7</v>
       </c>
       <c r="G28" s="8" t="s">
@@ -2899,13 +3556,13 @@
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E29" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F29" s="49" t="s">
-        <v>34</v>
+      <c r="F29" s="28" t="s">
+        <v>33</v>
       </c>
       <c r="G29" s="8" t="s">
         <v>15</v>
@@ -2920,7 +3577,7 @@
       </c>
       <c r="C30" s="12"/>
       <c r="D30" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30" s="13" t="s">
         <v>14</v>
@@ -2935,37 +3592,404 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="2:8" ht="97.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="2:8" ht="97.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="97.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="97.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="97.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="97.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="97.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="97.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="97.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="97.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="97.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="97.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="97.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="97.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="97.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="97.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="97.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="97.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="97.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="97.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="97.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="97.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="97.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="97.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="97.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="97.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="97.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="97.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="97.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="97.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="97.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="2:8" ht="123" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="29"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="26">
+        <v>1</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" ht="212.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="29"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" s="26">
+        <v>1</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" ht="195" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="29"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="26">
+        <v>1</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" ht="179.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="29"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" s="26">
+        <v>2</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="29"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" s="26">
+        <v>5</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" ht="128.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="29"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" s="26">
+        <v>1</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" ht="123" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="29"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" s="26">
+        <v>1</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" ht="133.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="29"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" s="26">
+        <v>2</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" ht="72.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="29"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" s="26">
+        <v>1</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" ht="196.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="29"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40" s="26">
+        <v>1</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" ht="161.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="29"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F41" s="26">
+        <v>4</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" ht="148.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="29"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F42" s="26">
+        <v>2</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" ht="133.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="29"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F43" s="26">
+        <v>1</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" ht="197.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="29"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F44" s="26">
+        <v>2</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" ht="123" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="29"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="7"/>
+    </row>
+    <row r="46" spans="2:8" ht="123" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="29"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="7"/>
+    </row>
+    <row r="47" spans="2:8" ht="123" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="29"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="7"/>
+    </row>
+    <row r="48" spans="2:8" ht="123" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="29"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="7"/>
+    </row>
+    <row r="49" spans="2:8" ht="123" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="29"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="7"/>
+    </row>
+    <row r="50" spans="2:8" ht="123" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="29"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="7"/>
+    </row>
+    <row r="51" spans="2:8" ht="123" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="29"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="7"/>
+    </row>
+    <row r="52" spans="2:8" ht="123" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="29"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="7"/>
+    </row>
+    <row r="53" spans="2:8" ht="123" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="29"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="26"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="7"/>
+    </row>
+    <row r="54" spans="2:8" ht="123" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="29"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="26"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="7"/>
+    </row>
+    <row r="55" spans="2:8" ht="150.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="29"/>
+      <c r="C55" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="30"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="7"/>
+    </row>
+    <row r="56" spans="2:8" ht="97.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="2:8" ht="97.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="2:8" ht="97.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="2:8" ht="97.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="2:8" ht="97.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="2:8" ht="97.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="2:8" ht="97.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="2:8" ht="97.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="2:8" ht="97.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="97.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="97.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="97.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="97.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="97.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="97.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="97.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="97.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="97.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="97.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="97.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="97.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="97.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="97.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="97.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="97.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="97.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="97.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="97.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="97.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="97.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="97.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="B2:H2"/>
